--- a/data/beds-vents-1019.xlsx
+++ b/data/beds-vents-1019.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="616">
   <si>
     <t>DATE</t>
   </si>
@@ -1859,6 +1859,9 @@
   </si>
   <si>
     <t>2021-10-17</t>
+  </si>
+  <si>
+    <t>2021-10-18</t>
   </si>
 </sst>
 </file>
@@ -2216,7 +2219,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O601"/>
+  <dimension ref="A1:O602"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -29641,6 +29644,53 @@
         <v>69.34999999999999</v>
       </c>
     </row>
+    <row r="602" spans="1:15">
+      <c r="A602" t="s">
+        <v>615</v>
+      </c>
+      <c r="B602">
+        <v>2246</v>
+      </c>
+      <c r="C602">
+        <v>426</v>
+      </c>
+      <c r="D602">
+        <v>1183</v>
+      </c>
+      <c r="E602">
+        <v>637</v>
+      </c>
+      <c r="F602">
+        <v>2798</v>
+      </c>
+      <c r="G602">
+        <v>243</v>
+      </c>
+      <c r="H602">
+        <v>619</v>
+      </c>
+      <c r="I602">
+        <v>1936</v>
+      </c>
+      <c r="J602">
+        <v>18.97</v>
+      </c>
+      <c r="K602">
+        <v>52.67</v>
+      </c>
+      <c r="L602">
+        <v>28.36</v>
+      </c>
+      <c r="M602">
+        <v>8.68</v>
+      </c>
+      <c r="N602">
+        <v>22.12</v>
+      </c>
+      <c r="O602">
+        <v>69.19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
